--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-8223-top-by-best-speed.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-8223-top-by-best-speed.xlsx
@@ -50,7 +50,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>11 ч. 22 мин. 9 сек.</t>
+    <t>11 ч. 22 мин. 09 сек.</t>
   </si>
   <si>
     <t>2</t>
@@ -86,7 +86,7 @@
     <t>Виталька</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 27 сек.</t>
+    <t>1 ч. 05 мин. 27 сек.</t>
   </si>
   <si>
     <t>6</t>
@@ -113,7 +113,7 @@
     <t>ReadySteadyGo_</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 54 сек.</t>
+    <t>1 ч. 07 мин. 54 сек.</t>
   </si>
   <si>
     <t>9</t>
@@ -122,7 +122,7 @@
     <t>Пичалька</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 41 сек.</t>
+    <t>1 ч. 08 мин. 41 сек.</t>
   </si>
   <si>
     <t>10</t>
@@ -131,7 +131,7 @@
     <t>Korner</t>
   </si>
   <si>
-    <t>4 ч. 1 мин. 7 сек.</t>
+    <t>4 ч. 01 мин. 07 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -140,7 +140,7 @@
     <t>shdw</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 46 сек.</t>
+    <t>1 ч. 06 мин. 46 сек.</t>
   </si>
   <si>
     <t>12–13</t>
@@ -155,7 +155,7 @@
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 22 сек.</t>
+    <t>4 ч. 04 мин. 22 сек.</t>
   </si>
   <si>
     <t>14</t>
@@ -164,7 +164,7 @@
     <t>_Jack_</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 1 сек.</t>
+    <t>1 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -182,7 +182,7 @@
     <t>Static</t>
   </si>
   <si>
-    <t>1 ч. 16 мин. 5 сек.</t>
+    <t>1 ч. 16 мин. 05 сек.</t>
   </si>
   <si>
     <t>17</t>
@@ -200,7 +200,7 @@
     <t>Кощей3452</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 23 сек.</t>
+    <t>1 ч. 00 мин. 23 сек.</t>
   </si>
   <si>
     <t>19</t>
@@ -236,7 +236,7 @@
     <t>КлавоЕд</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 32 сек.</t>
+    <t>2 ч. 07 мин. 32 сек.</t>
   </si>
   <si>
     <t>23</t>
@@ -281,7 +281,7 @@
     <t>Алина_</t>
   </si>
   <si>
-    <t>0 ч. 43 мин. 4 сек.</t>
+    <t>0 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>28</t>
@@ -317,7 +317,7 @@
     <t>Лень</t>
   </si>
   <si>
-    <t>0 ч. 39 мин. 8 сек.</t>
+    <t>0 ч. 39 мин. 08 сек.</t>
   </si>
   <si>
     <t>32</t>
@@ -368,7 +368,7 @@
     <t>zvv</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 56 сек.</t>
+    <t>1 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>38</t>
@@ -431,7 +431,7 @@
     <t>Диктатор</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 27 сек.</t>
+    <t>2 ч. 03 мин. 27 сек.</t>
   </si>
   <si>
     <t>45</t>
@@ -512,7 +512,7 @@
     <t>Numb_kz</t>
   </si>
   <si>
-    <t>17 ч. 1 мин. 54 сек.</t>
+    <t>17 ч. 01 мин. 54 сек.</t>
   </si>
   <si>
     <t>54</t>
@@ -521,7 +521,7 @@
     <t>WERT7</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 5 сек.</t>
+    <t>2 ч. 16 мин. 05 сек.</t>
   </si>
   <si>
     <t>55–57</t>
@@ -542,7 +542,7 @@
     <t>igormsu</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 51 сек.</t>
+    <t>1 ч. 08 мин. 51 сек.</t>
   </si>
   <si>
     <t>58–59</t>
@@ -581,7 +581,7 @@
     <t>Grinn</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 9 сек.</t>
+    <t>1 ч. 29 мин. 09 сек.</t>
   </si>
   <si>
     <t>Софья_Хуланова</t>
@@ -596,7 +596,7 @@
     <t>Oknevor</t>
   </si>
   <si>
-    <t>2 ч. 11 мин. 0 сек.</t>
+    <t>2 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>65</t>
@@ -605,7 +605,7 @@
     <t>Alsim</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 39 сек.</t>
+    <t>2 ч. 03 мин. 39 сек.</t>
   </si>
   <si>
     <t>66</t>
@@ -662,7 +662,7 @@
     <t>iji</t>
   </si>
   <si>
-    <t>11 ч. 29 мин. 2 сек.</t>
+    <t>11 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>73</t>
@@ -695,7 +695,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>12 ч. 59 мин. 3 сек.</t>
+    <t>12 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>77–78</t>
@@ -704,13 +704,13 @@
     <t>awefork</t>
   </si>
   <si>
-    <t>1 ч. 47 мин. 9 сек.</t>
+    <t>1 ч. 47 мин. 09 сек.</t>
   </si>
   <si>
     <t>gramh</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 2 сек.</t>
+    <t>4 ч. 06 мин. 02 сек.</t>
   </si>
   <si>
     <t>79</t>
@@ -734,7 +734,7 @@
     <t>Pcholka</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 51 сек.</t>
+    <t>2 ч. 09 мин. 51 сек.</t>
   </si>
   <si>
     <t>InsydeR</t>
@@ -749,7 +749,7 @@
     <t>Импульс</t>
   </si>
   <si>
-    <t>0 ч. 53 мин. 6 сек.</t>
+    <t>0 ч. 53 мин. 06 сек.</t>
   </si>
   <si>
     <t>dubrav</t>
@@ -764,7 +764,7 @@
     <t>VanDyk</t>
   </si>
   <si>
-    <t>1 ч. 13 мин. 3 сек.</t>
+    <t>1 ч. 13 мин. 03 сек.</t>
   </si>
   <si>
     <t>Пере6орыч</t>
@@ -785,7 +785,7 @@
     <t>TypeError</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 39 сек.</t>
+    <t>1 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>89</t>
@@ -830,7 +830,7 @@
     <t>Arbiter</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 2 сек.</t>
+    <t>0 ч. 49 мин. 02 сек.</t>
   </si>
   <si>
     <t>94</t>
@@ -839,7 +839,7 @@
     <t>carmero</t>
   </si>
   <si>
-    <t>8 ч. 44 мин. 2 сек.</t>
+    <t>8 ч. 44 мин. 02 сек.</t>
   </si>
   <si>
     <t>95–96</t>
@@ -863,13 +863,13 @@
     <t>lndeterminate</t>
   </si>
   <si>
-    <t>1 ч. 42 мин. 4 сек.</t>
+    <t>1 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 42 сек.</t>
+    <t>2 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>NDancer</t>
@@ -893,7 +893,7 @@
     <t>kostyagordyaev</t>
   </si>
   <si>
-    <t>1 ч. 33 мин. 0 сек.</t>
+    <t>1 ч. 33 мин. 00 сек.</t>
   </si>
   <si>
     <t>fingeroo</t>
@@ -968,7 +968,7 @@
     <t>Gardenstone</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 34 сек.</t>
+    <t>1 ч. 05 мин. 34 сек.</t>
   </si>
   <si>
     <t>111</t>
@@ -977,7 +977,7 @@
     <t>counterfeit</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 23 сек.</t>
+    <t>9 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>112</t>
@@ -1016,7 +1016,7 @@
     <t>Pasha18</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 3 сек.</t>
+    <t>1 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>Jon31</t>
@@ -1058,13 +1058,13 @@
     <t>-LVV-</t>
   </si>
   <si>
-    <t>0 ч. 58 мин. 2 сек.</t>
+    <t>0 ч. 58 мин. 02 сек.</t>
   </si>
   <si>
     <t>Pale_Rider</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 28 сек.</t>
+    <t>1 ч. 09 мин. 28 сек.</t>
   </si>
   <si>
     <t>123</t>
@@ -1073,7 +1073,7 @@
     <t>byADDON</t>
   </si>
   <si>
-    <t>8 ч. 45 мин. 8 сек.</t>
+    <t>8 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>124</t>
@@ -1082,7 +1082,7 @@
     <t>Сонь</t>
   </si>
   <si>
-    <t>1 ч. 32 мин. 0 сек.</t>
+    <t>1 ч. 32 мин. 00 сек.</t>
   </si>
   <si>
     <t>125</t>
@@ -1100,7 +1100,7 @@
     <t>Верховцев</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 58 сек.</t>
+    <t>3 ч. 07 мин. 58 сек.</t>
   </si>
   <si>
     <t>127–128</t>
@@ -1109,7 +1109,7 @@
     <t>EvilMachine</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 56 сек.</t>
+    <t>2 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>valula</t>
@@ -1124,13 +1124,13 @@
     <t>Мирный</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 2 сек.</t>
+    <t>1 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>Ilya666</t>
   </si>
   <si>
-    <t>1 ч. 38 мин. 6 сек.</t>
+    <t>1 ч. 38 мин. 06 сек.</t>
   </si>
   <si>
     <t>131–132</t>
@@ -1160,7 +1160,7 @@
     <t>Maire</t>
   </si>
   <si>
-    <t>2 ч. 59 мин. 6 сек.</t>
+    <t>2 ч. 59 мин. 06 сек.</t>
   </si>
   <si>
     <t>135</t>
@@ -1169,7 +1169,7 @@
     <t>cybranker</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 33 сек.</t>
+    <t>1 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>136–137</t>
@@ -1178,13 +1178,13 @@
     <t>bkozhaev</t>
   </si>
   <si>
-    <t>0 ч. 44 мин. 3 сек.</t>
+    <t>0 ч. 44 мин. 03 сек.</t>
   </si>
   <si>
     <t>molot-perm</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 7 сек.</t>
+    <t>1 ч. 45 мин. 07 сек.</t>
   </si>
   <si>
     <t>138–140</t>
@@ -1214,7 +1214,7 @@
     <t>Аферист</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 15 сек.</t>
+    <t>1 ч. 00 мин. 15 сек.</t>
   </si>
   <si>
     <t>doklls</t>
@@ -1235,7 +1235,7 @@
     <t>oleggo</t>
   </si>
   <si>
-    <t>2 ч. 29 мин. 8 сек.</t>
+    <t>2 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>145</t>
@@ -1244,7 +1244,7 @@
     <t>Dobby_</t>
   </si>
   <si>
-    <t>3 ч. 29 мин. 6 сек.</t>
+    <t>3 ч. 29 мин. 06 сек.</t>
   </si>
   <si>
     <t>146–147</t>
@@ -1259,7 +1259,7 @@
     <t>KuzYur</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 55 сек.</t>
+    <t>1 ч. 01 мин. 55 сек.</t>
   </si>
   <si>
     <t>148</t>
@@ -1310,7 +1310,7 @@
     <t>bolgarinpavel</t>
   </si>
   <si>
-    <t>1 ч. 57 мин. 3 сек.</t>
+    <t>1 ч. 57 мин. 03 сек.</t>
   </si>
   <si>
     <t>Sonick071</t>
@@ -1325,7 +1325,7 @@
     <t>tyrpyr</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 3 сек.</t>
+    <t>1 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>157–158</t>
@@ -1355,7 +1355,7 @@
     <t>HellBoy33</t>
   </si>
   <si>
-    <t>0 ч. 46 мин. 1 сек.</t>
+    <t>0 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>161–162</t>
@@ -1370,7 +1370,7 @@
     <t>4buRatoR</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 32 сек.</t>
+    <t>1 ч. 01 мин. 32 сек.</t>
   </si>
   <si>
     <t>163</t>
@@ -1379,7 +1379,7 @@
     <t>Reset82</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 56 сек.</t>
+    <t>1 ч. 07 мин. 56 сек.</t>
   </si>
   <si>
     <t>164</t>
@@ -1406,7 +1406,7 @@
     <t>_aggel</t>
   </si>
   <si>
-    <t>0 ч. 43 мин. 5 сек.</t>
+    <t>0 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>Pisaka</t>
@@ -1436,7 +1436,7 @@
     <t>Берегиня</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 6 сек.</t>
+    <t>2 ч. 08 мин. 06 сек.</t>
   </si>
   <si>
     <t>171</t>
@@ -1445,7 +1445,7 @@
     <t>coolgrave</t>
   </si>
   <si>
-    <t>0 ч. 57 мин. 2 сек.</t>
+    <t>0 ч. 57 мин. 02 сек.</t>
   </si>
   <si>
     <t>172</t>
@@ -1478,7 +1478,7 @@
     <t>Астронафт</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 56 сек.</t>
+    <t>1 ч. 01 мин. 56 сек.</t>
   </si>
   <si>
     <t>176</t>
@@ -1523,7 +1523,7 @@
     <t>MirZz</t>
   </si>
   <si>
-    <t>1 ч. 10 мин. 5 сек.</t>
+    <t>1 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>shvalegor</t>
@@ -1538,7 +1538,7 @@
     <t>su-35</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 44 сек.</t>
+    <t>1 ч. 02 мин. 44 сек.</t>
   </si>
   <si>
     <t>183</t>
@@ -1547,7 +1547,7 @@
     <t>Squirr</t>
   </si>
   <si>
-    <t>1 ч. 30 мин. 2 сек.</t>
+    <t>1 ч. 30 мин. 02 сек.</t>
   </si>
   <si>
     <t>184–185</t>
@@ -1556,7 +1556,7 @@
     <t>Jeena</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 39 сек.</t>
+    <t>1 ч. 09 мин. 39 сек.</t>
   </si>
   <si>
     <t>adviser105</t>
@@ -1589,7 +1589,7 @@
     <t>Auril</t>
   </si>
   <si>
-    <t>5 ч. 21 мин. 8 сек.</t>
+    <t>5 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>189</t>
@@ -1616,7 +1616,7 @@
     <t>Сима44</t>
   </si>
   <si>
-    <t>6 ч. 39 мин. 8 сек.</t>
+    <t>6 ч. 39 мин. 08 сек.</t>
   </si>
   <si>
     <t>192–195</t>
@@ -1637,7 +1637,7 @@
     <t>Wiiseacre</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 38 сек.</t>
+    <t>2 ч. 05 мин. 38 сек.</t>
   </si>
   <si>
     <t>judigator</t>
@@ -1685,7 +1685,7 @@
     <t>JESE_R</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 52 сек.</t>
+    <t>1 ч. 07 мин. 52 сек.</t>
   </si>
   <si>
     <t>201–202</t>
@@ -1799,7 +1799,7 @@
     <t>machinek56</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 7 сек.</t>
+    <t>1 ч. 40 мин. 07 сек.</t>
   </si>
   <si>
     <t>sergeyburda</t>
@@ -1820,7 +1820,7 @@
     <t>Ирдэнс</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 45 сек.</t>
+    <t>1 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>Oble</t>
@@ -1868,7 +1868,7 @@
     <t>k1netik</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 39 сек.</t>
+    <t>1 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>ЛовкийЭльф</t>
@@ -1898,7 +1898,7 @@
     <t>zpslon</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 49 сек.</t>
+    <t>1 ч. 01 мин. 49 сек.</t>
   </si>
   <si>
     <t>228–229</t>
@@ -1907,13 +1907,13 @@
     <t>VQV</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 5 сек.</t>
+    <t>1 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>dertru</t>
   </si>
   <si>
-    <t>4 ч. 54 мин. 9 сек.</t>
+    <t>4 ч. 54 мин. 09 сек.</t>
   </si>
   <si>
     <t>230–231</t>
@@ -1937,7 +1937,7 @@
     <t>vovetRU</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 34 сек.</t>
+    <t>2 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>233–234</t>
@@ -1976,7 +1976,7 @@
     <t>Paulzh</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 4 сек.</t>
+    <t>5 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>238</t>
@@ -2033,7 +2033,7 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 20 сек.</t>
+    <t>4 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>245–248</t>
@@ -2042,13 +2042,13 @@
     <t>Kml</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 16 сек.</t>
+    <t>1 ч. 05 мин. 16 сек.</t>
   </si>
   <si>
     <t>Твоямама</t>
   </si>
   <si>
-    <t>2 ч. 14 мин. 6 сек.</t>
+    <t>2 ч. 14 мин. 06 сек.</t>
   </si>
   <si>
     <t>borzonhiggs</t>
@@ -2069,13 +2069,13 @@
     <t>sorokonoshka</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 11 сек.</t>
+    <t>1 ч. 03 мин. 11 сек.</t>
   </si>
   <si>
     <t>Rain</t>
   </si>
   <si>
-    <t>2 ч. 44 мин. 8 сек.</t>
+    <t>2 ч. 44 мин. 08 сек.</t>
   </si>
   <si>
     <t>251</t>
@@ -2093,7 +2093,7 @@
     <t>Play4food</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 27 сек.</t>
+    <t>1 ч. 07 мин. 27 сек.</t>
   </si>
   <si>
     <t>253</t>
@@ -2120,7 +2120,7 @@
     <t>dogs_life</t>
   </si>
   <si>
-    <t>0 ч. 57 мин. 6 сек.</t>
+    <t>0 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>256</t>
@@ -2129,7 +2129,7 @@
     <t>romashka_raz</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 13 сек.</t>
+    <t>1 ч. 09 мин. 13 сек.</t>
   </si>
   <si>
     <t>257</t>
@@ -2138,7 +2138,7 @@
     <t>pavlosof</t>
   </si>
   <si>
-    <t>2 ч. 51 мин. 1 сек.</t>
+    <t>2 ч. 51 мин. 01 сек.</t>
   </si>
   <si>
     <t>258</t>
@@ -2156,7 +2156,7 @@
     <t>Графит</t>
   </si>
   <si>
-    <t>7 ч. 5 мин. 33 сек.</t>
+    <t>7 ч. 05 мин. 33 сек.</t>
   </si>
   <si>
     <t>260</t>
@@ -2174,7 +2174,7 @@
     <t>Lucky_You</t>
   </si>
   <si>
-    <t>2 ч. 15 мин. 7 сек.</t>
+    <t>2 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>262</t>
@@ -2213,7 +2213,7 @@
     <t>Napoli</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 7 сек.</t>
+    <t>2 ч. 26 мин. 07 сек.</t>
   </si>
   <si>
     <t>267</t>
@@ -2231,7 +2231,7 @@
     <t>gurkovs</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 8 сек.</t>
+    <t>1 ч. 25 мин. 08 сек.</t>
   </si>
   <si>
     <t>kapsh</t>
@@ -2246,7 +2246,7 @@
     <t>Соточка</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 31 сек.</t>
+    <t>1 ч. 09 мин. 31 сек.</t>
   </si>
   <si>
     <t>nikolay51</t>
@@ -2261,7 +2261,7 @@
     <t>nikioa</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 50 сек.</t>
+    <t>1 ч. 06 мин. 50 сек.</t>
   </si>
   <si>
     <t>273</t>
@@ -2285,7 +2285,7 @@
     <t>XuMuK_</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 8 сек.</t>
+    <t>2 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>276</t>
@@ -2321,7 +2321,7 @@
     <t>lornashore</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 34 сек.</t>
+    <t>1 ч. 09 мин. 34 сек.</t>
   </si>
   <si>
     <t>Эхпрокачуу</t>
@@ -2402,7 +2402,7 @@
     <t>ip_2112</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 49 сек.</t>
+    <t>2 ч. 07 мин. 49 сек.</t>
   </si>
   <si>
     <t>290–291</t>
@@ -2435,7 +2435,7 @@
     <t>ivkest</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 25 сек.</t>
+    <t>3 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>294</t>
@@ -2477,7 +2477,7 @@
     <t>Saranka</t>
   </si>
   <si>
-    <t>2 ч. 24 мин. 6 сек.</t>
+    <t>2 ч. 24 мин. 06 сек.</t>
   </si>
   <si>
     <t>299</t>
@@ -2486,7 +2486,7 @@
     <t>Шмакодявка</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 52 сек.</t>
+    <t>3 ч. 00 мин. 52 сек.</t>
   </si>
   <si>
     <t>300</t>
@@ -2495,7 +2495,7 @@
     <t>Fleabag</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 11 сек.</t>
+    <t>2 ч. 06 мин. 11 сек.</t>
   </si>
   <si>
     <t>301</t>
@@ -2522,7 +2522,7 @@
     <t>TarutE</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 11 сек.</t>
+    <t>2 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>304</t>
@@ -2540,7 +2540,7 @@
     <t>Andrulya</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 0 сек.</t>
+    <t>2 ч. 09 мин. 00 сек.</t>
   </si>
   <si>
     <t>306</t>
@@ -2549,7 +2549,7 @@
     <t>gassar</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 1 сек.</t>
+    <t>2 ч. 58 мин. 01 сек.</t>
   </si>
   <si>
     <t>307</t>
@@ -2576,7 +2576,7 @@
     <t>Антоха61</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 39 сек.</t>
+    <t>2 ч. 09 мин. 39 сек.</t>
   </si>
   <si>
     <t>310</t>
